--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-TwoPoints Improvement (%)</t>
+          <t>ARAP-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-TwoPoints Final Vs Mov (%)</t>
+          <t>ARAP-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-TwoPoints Initial VS Mov (%)</t>
+          <t>ARAP-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-FarPoints Improvement (%)</t>
+          <t>ARAP-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-FarPoints Final Vs Mov (%)</t>
+          <t>ARAP-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Elastic-FarPoints Initial VS Mov (%)</t>
+          <t>ARAP-TwoPoints Initial VS Mov (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP-FarPoints Improvement (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP-FarPoints Final Vs Mov (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -501,21 +516,30 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.33</v>
+        <v>-6.74</v>
       </c>
       <c r="F2" t="n">
-        <v>82.56999999999999</v>
+        <v>83.23</v>
       </c>
       <c r="G2" t="n">
+        <v>77.97</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81.78</v>
+      </c>
+      <c r="J2" t="n">
         <v>85.31999999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>87.72</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>-5.87</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="M2" t="n">
         <v>86.33</v>
       </c>
     </row>
@@ -535,21 +559,30 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44</v>
+        <v>6.28</v>
       </c>
       <c r="F3" t="n">
-        <v>65.42</v>
+        <v>56.77</v>
       </c>
       <c r="G3" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>58.18</v>
+      </c>
+      <c r="J3" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="M3" t="n">
         <v>70.8</v>
       </c>
     </row>
@@ -569,21 +602,30 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.52</v>
+        <v>-1.78</v>
       </c>
       <c r="F4" t="n">
-        <v>71.25</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="G4" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="J4" t="n">
         <v>73.78</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74.15000000000001</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="M4" t="n">
         <v>75.48</v>
       </c>
     </row>
@@ -603,21 +645,30 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.99</v>
+        <v>-6.16</v>
       </c>
       <c r="F5" t="n">
-        <v>82.37</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G5" t="n">
+        <v>76.26000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="J5" t="n">
         <v>85.79000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>-24.27</v>
-      </c>
-      <c r="I5" t="n">
-        <v>106.98</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L5" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="M5" t="n">
         <v>86.11</v>
       </c>
     </row>
@@ -637,21 +688,30 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>15.27</v>
+        <v>5.15</v>
       </c>
       <c r="F6" t="n">
-        <v>47.2</v>
+        <v>44.11</v>
       </c>
       <c r="G6" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="J6" t="n">
         <v>55.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="M6" t="n">
         <v>56.2</v>
       </c>
     </row>
@@ -671,21 +731,30 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4.38</v>
+        <v>-2.05</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86</v>
+        <v>68.78</v>
       </c>
       <c r="G7" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="J7" t="n">
         <v>76.23</v>
       </c>
-      <c r="H7" t="n">
-        <v>-54.42</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>-54.31</v>
+      </c>
+      <c r="L7" t="n">
+        <v>117.73</v>
+      </c>
+      <c r="M7" t="n">
         <v>76.28</v>
       </c>
     </row>
@@ -705,21 +774,30 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>9.869999999999999</v>
+        <v>-0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>56.49</v>
+        <v>53.76</v>
       </c>
       <c r="G8" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="I8" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="J8" t="n">
         <v>62.65</v>
       </c>
-      <c r="H8" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56.15</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="M8" t="n">
         <v>66.67</v>
       </c>
     </row>
@@ -739,21 +817,30 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>7.12</v>
+        <v>-2.38</v>
       </c>
       <c r="F9" t="n">
-        <v>69.93000000000001</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="G9" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>69.17</v>
+      </c>
+      <c r="J9" t="n">
         <v>75.19</v>
       </c>
-      <c r="H9" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="I9" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="L9" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="M9" t="n">
         <v>76.12</v>
       </c>
     </row>
@@ -773,21 +860,30 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>20.67</v>
+        <v>45.75</v>
       </c>
       <c r="F10" t="n">
-        <v>43.82</v>
+        <v>23.82</v>
       </c>
       <c r="G10" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="H10" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J10" t="n">
         <v>55.27</v>
       </c>
-      <c r="H10" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42.47</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="M10" t="n">
         <v>55.65</v>
       </c>
     </row>
@@ -807,21 +903,30 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.79</v>
+        <v>-4.99</v>
       </c>
       <c r="F11" t="n">
-        <v>79.12</v>
+        <v>67.73</v>
       </c>
       <c r="G11" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="J11" t="n">
         <v>75.48</v>
       </c>
-      <c r="H11" t="n">
-        <v>-34.73</v>
-      </c>
-      <c r="I11" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="M11" t="n">
         <v>75.27</v>
       </c>
     </row>
@@ -841,21 +946,30 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F12" t="n">
-        <v>285.97</v>
+        <v>284.78</v>
       </c>
       <c r="G12" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="I12" t="n">
+        <v>286.21</v>
+      </c>
+      <c r="J12" t="n">
         <v>286.51</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>291.07</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="L12" t="n">
+        <v>280.41</v>
+      </c>
+      <c r="M12" t="n">
         <v>298.41</v>
       </c>
     </row>
@@ -875,21 +989,30 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.27</v>
+        <v>1.92</v>
       </c>
       <c r="F13" t="n">
-        <v>303.56</v>
+        <v>302.6</v>
       </c>
       <c r="G13" t="n">
+        <v>308.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I13" t="n">
+        <v>303.08</v>
+      </c>
+      <c r="J13" t="n">
         <v>304.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I13" t="n">
-        <v>311.5</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>321.26</v>
+      </c>
+      <c r="M13" t="n">
         <v>324.8</v>
       </c>
     </row>
@@ -909,21 +1032,30 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="F14" t="n">
-        <v>230.81</v>
+        <v>229.65</v>
       </c>
       <c r="G14" t="n">
+        <v>231.49</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I14" t="n">
+        <v>230.65</v>
+      </c>
+      <c r="J14" t="n">
         <v>231.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I14" t="n">
-        <v>237.48</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>224.96</v>
+      </c>
+      <c r="M14" t="n">
         <v>239.57</v>
       </c>
     </row>
@@ -943,21 +1075,30 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-1.81</v>
       </c>
       <c r="F15" t="n">
-        <v>165.87</v>
+        <v>161.74</v>
       </c>
       <c r="G15" t="n">
+        <v>158.89</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>164.26</v>
       </c>
-      <c r="H15" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>167.46</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="L15" t="n">
+        <v>166.01</v>
+      </c>
+      <c r="M15" t="n">
         <v>164.69</v>
       </c>
     </row>
@@ -977,21 +1118,30 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2.14</v>
+        <v>0.58</v>
       </c>
       <c r="F16" t="n">
-        <v>142.03</v>
+        <v>141.31</v>
       </c>
       <c r="G16" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I16" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="J16" t="n">
         <v>145.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>145.74</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L16" t="n">
+        <v>142.13</v>
+      </c>
+      <c r="M16" t="n">
         <v>148</v>
       </c>
     </row>
@@ -1011,21 +1161,30 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1.44</v>
+        <v>-0.68</v>
       </c>
       <c r="F17" t="n">
-        <v>189.28</v>
+        <v>188.84</v>
       </c>
       <c r="G17" t="n">
+        <v>187.54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I17" t="n">
+        <v>189.11</v>
+      </c>
+      <c r="J17" t="n">
         <v>192.02</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="I17" t="n">
-        <v>193.85</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>183.14</v>
+      </c>
+      <c r="M17" t="n">
         <v>192.67</v>
       </c>
     </row>
@@ -1045,21 +1204,30 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>3.67</v>
+        <v>5.33</v>
       </c>
       <c r="F18" t="n">
-        <v>127.39</v>
+        <v>119.95</v>
       </c>
       <c r="G18" t="n">
+        <v>126.71</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="I18" t="n">
+        <v>123.13</v>
+      </c>
+      <c r="J18" t="n">
         <v>132.21</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I18" t="n">
-        <v>126.21</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L18" t="n">
+        <v>119.52</v>
+      </c>
+      <c r="M18" t="n">
         <v>132.89</v>
       </c>
     </row>
@@ -1079,21 +1247,30 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>3.41</v>
+        <v>3.79</v>
       </c>
       <c r="F19" t="n">
-        <v>133</v>
+        <v>127.22</v>
       </c>
       <c r="G19" t="n">
+        <v>132.26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="I19" t="n">
+        <v>128.04</v>
+      </c>
+      <c r="J19" t="n">
         <v>137.72</v>
       </c>
-      <c r="H19" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>132.84</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="M19" t="n">
         <v>138.48</v>
       </c>
     </row>
@@ -1113,21 +1290,30 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6.14</v>
+        <v>3.86</v>
       </c>
       <c r="F20" t="n">
-        <v>113.57</v>
+        <v>108.29</v>
       </c>
       <c r="G20" t="n">
+        <v>112.63</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>109.04</v>
+      </c>
+      <c r="J20" t="n">
         <v>120.99</v>
       </c>
-      <c r="H20" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I20" t="n">
-        <v>112.16</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>108.41</v>
+      </c>
+      <c r="M20" t="n">
         <v>120.29</v>
       </c>
     </row>
@@ -1147,21 +1333,30 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4.6</v>
+        <v>3.01</v>
       </c>
       <c r="F21" t="n">
-        <v>125.84</v>
+        <v>121.18</v>
       </c>
       <c r="G21" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="I21" t="n">
+        <v>121.86</v>
+      </c>
+      <c r="J21" t="n">
         <v>131.91</v>
       </c>
-      <c r="H21" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I21" t="n">
-        <v>125.57</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>111.96</v>
+      </c>
+      <c r="M21" t="n">
         <v>131.66</v>
       </c>
     </row>
@@ -1181,21 +1376,30 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04</v>
+        <v>0.82</v>
       </c>
       <c r="F22" t="n">
-        <v>447.32</v>
+        <v>448.57</v>
       </c>
       <c r="G22" t="n">
+        <v>451.97</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>447.49</v>
+      </c>
+      <c r="J22" t="n">
         <v>447.29</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>458.85</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>445.68</v>
+      </c>
+      <c r="M22" t="n">
         <v>469.95</v>
       </c>
     </row>
@@ -1215,21 +1419,30 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>2.31</v>
       </c>
       <c r="F23" t="n">
-        <v>720.92</v>
+        <v>713.38</v>
       </c>
       <c r="G23" t="n">
+        <v>730.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I23" t="n">
+        <v>720.42</v>
+      </c>
+      <c r="J23" t="n">
         <v>721.2</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="I23" t="n">
-        <v>732.29</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>694.2</v>
+      </c>
+      <c r="M23" t="n">
         <v>758.4</v>
       </c>
     </row>
@@ -1249,21 +1462,30 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09</v>
+        <v>1.43</v>
       </c>
       <c r="F24" t="n">
-        <v>444.61</v>
+        <v>442.63</v>
       </c>
       <c r="G24" t="n">
+        <v>448.57</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>444.53</v>
+      </c>
+      <c r="J24" t="n">
         <v>444.62</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I24" t="n">
-        <v>452.27</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="L24" t="n">
+        <v>431.77</v>
+      </c>
+      <c r="M24" t="n">
         <v>465.49</v>
       </c>
     </row>
@@ -1283,21 +1505,30 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="F25" t="n">
-        <v>274.99</v>
+        <v>274.68</v>
       </c>
       <c r="G25" t="n">
+        <v>273.58</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I25" t="n">
+        <v>275.14</v>
+      </c>
+      <c r="J25" t="n">
         <v>275.41</v>
       </c>
-      <c r="H25" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="I25" t="n">
-        <v>280.15</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L25" t="n">
+        <v>274.05</v>
+      </c>
+      <c r="M25" t="n">
         <v>279.25</v>
       </c>
     </row>
@@ -1317,21 +1548,30 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="F26" t="n">
-        <v>198.28</v>
+        <v>205.19</v>
       </c>
       <c r="G26" t="n">
-        <v>201.6</v>
+        <v>208</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="I26" t="n">
-        <v>212.11</v>
+        <v>205.94</v>
       </c>
       <c r="J26" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="L26" t="n">
+        <v>202.79</v>
+      </c>
+      <c r="M26" t="n">
         <v>217.5</v>
       </c>
     </row>
@@ -1351,21 +1591,30 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.55</v>
+        <v>-0.13</v>
       </c>
       <c r="F27" t="n">
-        <v>238.41</v>
+        <v>237.2</v>
       </c>
       <c r="G27" t="n">
+        <v>236.86</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>239.02</v>
+      </c>
+      <c r="J27" t="n">
         <v>239.72</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I27" t="n">
-        <v>240.19</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>231.39</v>
+      </c>
+      <c r="M27" t="n">
         <v>241.74</v>
       </c>
     </row>
@@ -1385,21 +1634,30 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>4.06</v>
+        <v>1.72</v>
       </c>
       <c r="F28" t="n">
-        <v>154.82</v>
+        <v>151.45</v>
       </c>
       <c r="G28" t="n">
+        <v>154.09</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I28" t="n">
+        <v>152.71</v>
+      </c>
+      <c r="J28" t="n">
         <v>161.36</v>
       </c>
-      <c r="H28" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I28" t="n">
-        <v>153.99</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="L28" t="n">
+        <v>151.19</v>
+      </c>
+      <c r="M28" t="n">
         <v>161.3</v>
       </c>
     </row>
@@ -1419,21 +1677,30 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="F29" t="n">
-        <v>172.44</v>
+        <v>167.58</v>
       </c>
       <c r="G29" t="n">
+        <v>171.84</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I29" t="n">
+        <v>168.95</v>
+      </c>
+      <c r="J29" t="n">
         <v>176.96</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="I29" t="n">
-        <v>171.81</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="L29" t="n">
+        <v>166.12</v>
+      </c>
+      <c r="M29" t="n">
         <v>177.95</v>
       </c>
     </row>
@@ -1453,21 +1720,30 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5.49</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>135.5</v>
+        <v>134.13</v>
       </c>
       <c r="G30" t="n">
+        <v>135.41</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="I30" t="n">
+        <v>135.08</v>
+      </c>
+      <c r="J30" t="n">
         <v>143.36</v>
       </c>
-      <c r="H30" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="I30" t="n">
-        <v>134.27</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="L30" t="n">
+        <v>131.96</v>
+      </c>
+      <c r="M30" t="n">
         <v>143.01</v>
       </c>
     </row>
@@ -1487,21 +1763,30 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5.46</v>
+        <v>3.02</v>
       </c>
       <c r="F31" t="n">
-        <v>137.39</v>
+        <v>132.91</v>
       </c>
       <c r="G31" t="n">
+        <v>137.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="I31" t="n">
+        <v>133.71</v>
+      </c>
+      <c r="J31" t="n">
         <v>145.33</v>
       </c>
-      <c r="H31" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>136.98</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="L31" t="n">
+        <v>132.82</v>
+      </c>
+      <c r="M31" t="n">
         <v>145.27</v>
       </c>
     </row>

--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Improvement (%)</t>
+          <t>HyperElasticOdgen-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.74</v>
+        <v>-85.5</v>
       </c>
       <c r="F2" t="n">
-        <v>83.23</v>
+        <v>144.64</v>
       </c>
       <c r="G2" t="n">
         <v>77.97</v>
       </c>
       <c r="H2" t="n">
-        <v>4.25</v>
+        <v>-108.5</v>
       </c>
       <c r="I2" t="n">
-        <v>81.78</v>
+        <v>178.1</v>
       </c>
       <c r="J2" t="n">
         <v>85.31999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.87</v>
+        <v>-39.09</v>
       </c>
       <c r="L2" t="n">
-        <v>91.40000000000001</v>
+        <v>120.08</v>
       </c>
       <c r="M2" t="n">
         <v>86.33</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>6.28</v>
+        <v>2.78</v>
       </c>
       <c r="F3" t="n">
-        <v>56.77</v>
+        <v>58.89</v>
       </c>
       <c r="G3" t="n">
         <v>60.4</v>
       </c>
       <c r="H3" t="n">
-        <v>11.46</v>
+        <v>10.58</v>
       </c>
       <c r="I3" t="n">
-        <v>58.18</v>
+        <v>58.76</v>
       </c>
       <c r="J3" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>24.38</v>
+        <v>16.32</v>
       </c>
       <c r="L3" t="n">
-        <v>53.45</v>
+        <v>59.15</v>
       </c>
       <c r="M3" t="n">
         <v>70.8</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.78</v>
+        <v>-93.17</v>
       </c>
       <c r="F4" t="n">
-        <v>68.26000000000001</v>
+        <v>129.54</v>
       </c>
       <c r="G4" t="n">
         <v>67.02</v>
       </c>
       <c r="H4" t="n">
-        <v>7.44</v>
+        <v>-95</v>
       </c>
       <c r="I4" t="n">
-        <v>68.36</v>
+        <v>144.01</v>
       </c>
       <c r="J4" t="n">
         <v>73.78</v>
       </c>
       <c r="K4" t="n">
-        <v>12.15</v>
+        <v>-48.02</v>
       </c>
       <c r="L4" t="n">
-        <v>66.38</v>
+        <v>111.84</v>
       </c>
       <c r="M4" t="n">
         <v>75.48</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.16</v>
+        <v>-205.27</v>
       </c>
       <c r="F5" t="n">
-        <v>80.90000000000001</v>
+        <v>232.65</v>
       </c>
       <c r="G5" t="n">
         <v>76.26000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>5.95</v>
+        <v>-189.61</v>
       </c>
       <c r="I5" t="n">
-        <v>80.68000000000001</v>
+        <v>248.46</v>
       </c>
       <c r="J5" t="n">
         <v>85.79000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>1.63</v>
+        <v>-206.66</v>
       </c>
       <c r="L5" t="n">
-        <v>84.69</v>
+        <v>264</v>
       </c>
       <c r="M5" t="n">
         <v>86.11</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>5.15</v>
+        <v>1.06</v>
       </c>
       <c r="F6" t="n">
-        <v>44.11</v>
+        <v>46.02</v>
       </c>
       <c r="G6" t="n">
         <v>46.5</v>
       </c>
       <c r="H6" t="n">
-        <v>18.19</v>
+        <v>19.48</v>
       </c>
       <c r="I6" t="n">
-        <v>45.57</v>
+        <v>44.85</v>
       </c>
       <c r="J6" t="n">
         <v>55.7</v>
       </c>
       <c r="K6" t="n">
-        <v>34.95</v>
+        <v>20.26</v>
       </c>
       <c r="L6" t="n">
-        <v>36.55</v>
+        <v>44.81</v>
       </c>
       <c r="M6" t="n">
         <v>56.2</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.05</v>
+        <v>-182.33</v>
       </c>
       <c r="F7" t="n">
-        <v>68.78</v>
+        <v>190.28</v>
       </c>
       <c r="G7" t="n">
         <v>67.40000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>9.68</v>
+        <v>-208.59</v>
       </c>
       <c r="I7" t="n">
-        <v>68.83</v>
+        <v>235.14</v>
       </c>
       <c r="J7" t="n">
         <v>76.23</v>
       </c>
       <c r="K7" t="n">
-        <v>-54.31</v>
+        <v>-122.73</v>
       </c>
       <c r="L7" t="n">
-        <v>117.73</v>
+        <v>169.92</v>
       </c>
       <c r="M7" t="n">
         <v>76.28</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.45</v>
+        <v>1.15</v>
       </c>
       <c r="F8" t="n">
-        <v>53.76</v>
+        <v>52.9</v>
       </c>
       <c r="G8" t="n">
         <v>53.4</v>
       </c>
       <c r="H8" t="n">
-        <v>14.46</v>
+        <v>16.73</v>
       </c>
       <c r="I8" t="n">
-        <v>53.61</v>
+        <v>52.19</v>
       </c>
       <c r="J8" t="n">
         <v>62.65</v>
       </c>
       <c r="K8" t="n">
-        <v>40.69</v>
+        <v>26.12</v>
       </c>
       <c r="L8" t="n">
-        <v>39.56</v>
+        <v>49.29</v>
       </c>
       <c r="M8" t="n">
         <v>66.67</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.38</v>
+        <v>-47.23</v>
       </c>
       <c r="F9" t="n">
-        <v>68.70999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G9" t="n">
         <v>66.98</v>
       </c>
       <c r="H9" t="n">
-        <v>8.130000000000001</v>
+        <v>-22.42</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17</v>
+        <v>92.17</v>
       </c>
       <c r="J9" t="n">
         <v>75.19</v>
       </c>
       <c r="K9" t="n">
-        <v>11.83</v>
+        <v>-19.73</v>
       </c>
       <c r="L9" t="n">
-        <v>67.13</v>
+        <v>91.16</v>
       </c>
       <c r="M9" t="n">
         <v>76.12</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>45.75</v>
+        <v>9.66</v>
       </c>
       <c r="F10" t="n">
-        <v>23.82</v>
+        <v>39.66</v>
       </c>
       <c r="G10" t="n">
         <v>43.87</v>
       </c>
       <c r="H10" t="n">
-        <v>39.17</v>
+        <v>25.78</v>
       </c>
       <c r="I10" t="n">
-        <v>33.6</v>
+        <v>40.99</v>
       </c>
       <c r="J10" t="n">
         <v>55.27</v>
       </c>
       <c r="K10" t="n">
-        <v>44.44</v>
+        <v>30.75</v>
       </c>
       <c r="L10" t="n">
-        <v>30.91</v>
+        <v>38.53</v>
       </c>
       <c r="M10" t="n">
         <v>55.65</v>
@@ -903,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.99</v>
+        <v>-289.32</v>
       </c>
       <c r="F11" t="n">
-        <v>67.73</v>
+        <v>251.16</v>
       </c>
       <c r="G11" t="n">
         <v>64.52</v>
       </c>
       <c r="H11" t="n">
-        <v>10.76</v>
+        <v>-220.74</v>
       </c>
       <c r="I11" t="n">
-        <v>67.38</v>
+        <v>242.18</v>
       </c>
       <c r="J11" t="n">
         <v>75.48</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.8</v>
+        <v>-223.79</v>
       </c>
       <c r="L11" t="n">
-        <v>79.65000000000001</v>
+        <v>243.76</v>
       </c>
       <c r="M11" t="n">
         <v>75.27</v>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
       <c r="F12" t="n">
-        <v>284.78</v>
+        <v>286.68</v>
       </c>
       <c r="G12" t="n">
         <v>287.3</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I12" t="n">
-        <v>286.21</v>
+        <v>286.1</v>
       </c>
       <c r="J12" t="n">
         <v>286.51</v>
       </c>
       <c r="K12" t="n">
-        <v>5.97</v>
+        <v>3.43</v>
       </c>
       <c r="L12" t="n">
-        <v>280.41</v>
+        <v>287.98</v>
       </c>
       <c r="M12" t="n">
         <v>298.41</v>
@@ -989,28 +989,28 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="F13" t="n">
-        <v>302.6</v>
+        <v>302.81</v>
       </c>
       <c r="G13" t="n">
         <v>308.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I13" t="n">
-        <v>303.08</v>
+        <v>303.27</v>
       </c>
       <c r="J13" t="n">
         <v>304.4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.12</v>
+        <v>6.25</v>
       </c>
       <c r="L13" t="n">
-        <v>321.26</v>
+        <v>304.6</v>
       </c>
       <c r="M13" t="n">
         <v>324.8</v>
@@ -1032,28 +1032,28 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="F14" t="n">
-        <v>229.65</v>
+        <v>230.25</v>
       </c>
       <c r="G14" t="n">
         <v>231.49</v>
       </c>
       <c r="H14" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I14" t="n">
-        <v>230.65</v>
+        <v>230.63</v>
       </c>
       <c r="J14" t="n">
         <v>231.7</v>
       </c>
       <c r="K14" t="n">
-        <v>6.05</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>224.96</v>
+        <v>230.71</v>
       </c>
       <c r="M14" t="n">
         <v>239.57</v>
@@ -1075,28 +1075,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.81</v>
+        <v>-57.77</v>
       </c>
       <c r="F15" t="n">
-        <v>161.74</v>
+        <v>250.63</v>
       </c>
       <c r="G15" t="n">
         <v>158.89</v>
       </c>
       <c r="H15" t="n">
-        <v>1.67</v>
+        <v>-44.34</v>
       </c>
       <c r="I15" t="n">
-        <v>161.5</v>
+        <v>237.05</v>
       </c>
       <c r="J15" t="n">
         <v>164.26</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.82</v>
+        <v>-62.72</v>
       </c>
       <c r="L15" t="n">
-        <v>166.01</v>
+        <v>267.94</v>
       </c>
       <c r="M15" t="n">
         <v>164.69</v>
@@ -1118,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="F16" t="n">
-        <v>141.31</v>
+        <v>141.12</v>
       </c>
       <c r="G16" t="n">
         <v>142.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.44</v>
+        <v>2.85</v>
       </c>
       <c r="I16" t="n">
-        <v>141.6</v>
+        <v>141.01</v>
       </c>
       <c r="J16" t="n">
         <v>145.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="L16" t="n">
-        <v>142.13</v>
+        <v>141.09</v>
       </c>
       <c r="M16" t="n">
         <v>148</v>
@@ -1161,28 +1161,28 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.68</v>
+        <v>-12.44</v>
       </c>
       <c r="F17" t="n">
-        <v>188.84</v>
+        <v>210.89</v>
       </c>
       <c r="G17" t="n">
         <v>187.54</v>
       </c>
       <c r="H17" t="n">
-        <v>1.53</v>
+        <v>-7.19</v>
       </c>
       <c r="I17" t="n">
-        <v>189.11</v>
+        <v>205.87</v>
       </c>
       <c r="J17" t="n">
         <v>192.02</v>
       </c>
       <c r="K17" t="n">
-        <v>4.95</v>
+        <v>-8.92</v>
       </c>
       <c r="L17" t="n">
-        <v>183.14</v>
+        <v>209.86</v>
       </c>
       <c r="M17" t="n">
         <v>192.67</v>
@@ -1204,28 +1204,28 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.33</v>
+        <v>0.63</v>
       </c>
       <c r="F18" t="n">
-        <v>119.95</v>
+        <v>125.9</v>
       </c>
       <c r="G18" t="n">
         <v>126.71</v>
       </c>
       <c r="H18" t="n">
-        <v>6.89</v>
+        <v>4.38</v>
       </c>
       <c r="I18" t="n">
-        <v>123.13</v>
+        <v>126.45</v>
       </c>
       <c r="J18" t="n">
         <v>132.21</v>
       </c>
       <c r="K18" t="n">
-        <v>10.06</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>119.52</v>
+        <v>121.87</v>
       </c>
       <c r="M18" t="n">
         <v>132.89</v>
@@ -1247,28 +1247,28 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>3.79</v>
+        <v>0.42</v>
       </c>
       <c r="F19" t="n">
-        <v>127.22</v>
+        <v>131.69</v>
       </c>
       <c r="G19" t="n">
         <v>132.26</v>
       </c>
       <c r="H19" t="n">
-        <v>7.01</v>
+        <v>4.08</v>
       </c>
       <c r="I19" t="n">
-        <v>128.04</v>
+        <v>132.08</v>
       </c>
       <c r="J19" t="n">
         <v>137.72</v>
       </c>
       <c r="K19" t="n">
-        <v>10.1</v>
+        <v>5.52</v>
       </c>
       <c r="L19" t="n">
-        <v>124.46</v>
+        <v>130.8</v>
       </c>
       <c r="M19" t="n">
         <v>138.48</v>
@@ -1290,28 +1290,28 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3.86</v>
+        <v>-1.31</v>
       </c>
       <c r="F20" t="n">
-        <v>108.29</v>
+        <v>114.1</v>
       </c>
       <c r="G20" t="n">
         <v>112.63</v>
       </c>
       <c r="H20" t="n">
-        <v>9.890000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="I20" t="n">
-        <v>109.04</v>
+        <v>110.73</v>
       </c>
       <c r="J20" t="n">
         <v>120.99</v>
       </c>
       <c r="K20" t="n">
-        <v>9.890000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="L20" t="n">
-        <v>108.41</v>
+        <v>109.45</v>
       </c>
       <c r="M20" t="n">
         <v>120.29</v>
@@ -1333,28 +1333,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3.01</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
-        <v>121.18</v>
+        <v>123.82</v>
       </c>
       <c r="G21" t="n">
         <v>124.95</v>
       </c>
       <c r="H21" t="n">
-        <v>7.61</v>
+        <v>-28.59</v>
       </c>
       <c r="I21" t="n">
-        <v>121.86</v>
+        <v>169.62</v>
       </c>
       <c r="J21" t="n">
         <v>131.91</v>
       </c>
       <c r="K21" t="n">
-        <v>14.95</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>111.96</v>
+        <v>125.72</v>
       </c>
       <c r="M21" t="n">
         <v>131.66</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>448.57</v>
+        <v>448.06</v>
       </c>
       <c r="G22" t="n">
         <v>451.97</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>447.49</v>
+        <v>447.47</v>
       </c>
       <c r="J22" t="n">
         <v>447.29</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="L22" t="n">
-        <v>445.68</v>
+        <v>445.55</v>
       </c>
       <c r="M22" t="n">
         <v>469.95</v>
@@ -1419,28 +1419,28 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>2.31</v>
+        <v>1.42</v>
       </c>
       <c r="F23" t="n">
-        <v>713.38</v>
+        <v>719.89</v>
       </c>
       <c r="G23" t="n">
         <v>730.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>720.42</v>
+        <v>720.99</v>
       </c>
       <c r="J23" t="n">
         <v>721.2</v>
       </c>
       <c r="K23" t="n">
-        <v>8.460000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
-        <v>694.2</v>
+        <v>719.66</v>
       </c>
       <c r="M23" t="n">
         <v>758.4</v>
@@ -1462,28 +1462,28 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="F24" t="n">
-        <v>442.63</v>
+        <v>444.22</v>
       </c>
       <c r="G24" t="n">
         <v>448.57</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>444.53</v>
+        <v>444.84</v>
       </c>
       <c r="J24" t="n">
         <v>444.62</v>
       </c>
       <c r="K24" t="n">
-        <v>7.35</v>
+        <v>4.54</v>
       </c>
       <c r="L24" t="n">
-        <v>431.77</v>
+        <v>444.84</v>
       </c>
       <c r="M24" t="n">
         <v>465.49</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.43</v>
+        <v>-0.76</v>
       </c>
       <c r="F25" t="n">
-        <v>274.68</v>
+        <v>275.6</v>
       </c>
       <c r="G25" t="n">
         <v>273.58</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>275.14</v>
+        <v>275.31</v>
       </c>
       <c r="J25" t="n">
         <v>275.41</v>
       </c>
       <c r="K25" t="n">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="L25" t="n">
-        <v>274.05</v>
+        <v>276.85</v>
       </c>
       <c r="M25" t="n">
         <v>279.25</v>
@@ -1548,28 +1548,28 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="F26" t="n">
-        <v>205.19</v>
+        <v>205.97</v>
       </c>
       <c r="G26" t="n">
         <v>208</v>
       </c>
       <c r="H26" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="I26" t="n">
-        <v>205.94</v>
+        <v>205.88</v>
       </c>
       <c r="J26" t="n">
         <v>209.3</v>
       </c>
       <c r="K26" t="n">
-        <v>6.74</v>
+        <v>5.42</v>
       </c>
       <c r="L26" t="n">
-        <v>202.79</v>
+        <v>205.67</v>
       </c>
       <c r="M26" t="n">
         <v>217.5</v>
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.13</v>
+        <v>-0.76</v>
       </c>
       <c r="F27" t="n">
-        <v>237.2</v>
+        <v>238.7</v>
       </c>
       <c r="G27" t="n">
         <v>236.86</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>239.02</v>
+        <v>238.85</v>
       </c>
       <c r="J27" t="n">
         <v>239.72</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>0.95</v>
       </c>
       <c r="L27" t="n">
-        <v>231.39</v>
+        <v>239.49</v>
       </c>
       <c r="M27" t="n">
         <v>241.74</v>
@@ -1634,28 +1634,28 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1.72</v>
+        <v>0.24</v>
       </c>
       <c r="F28" t="n">
-        <v>151.45</v>
+        <v>153.72</v>
       </c>
       <c r="G28" t="n">
         <v>154.09</v>
       </c>
       <c r="H28" t="n">
-        <v>5.37</v>
+        <v>4.41</v>
       </c>
       <c r="I28" t="n">
-        <v>152.71</v>
+        <v>154.25</v>
       </c>
       <c r="J28" t="n">
         <v>161.36</v>
       </c>
       <c r="K28" t="n">
-        <v>6.27</v>
+        <v>4.83</v>
       </c>
       <c r="L28" t="n">
-        <v>151.19</v>
+        <v>153.51</v>
       </c>
       <c r="M28" t="n">
         <v>161.3</v>
@@ -1677,28 +1677,28 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>2.49</v>
+        <v>1.62</v>
       </c>
       <c r="F29" t="n">
-        <v>167.58</v>
+        <v>169.07</v>
       </c>
       <c r="G29" t="n">
         <v>171.84</v>
       </c>
       <c r="H29" t="n">
-        <v>4.53</v>
+        <v>3.48</v>
       </c>
       <c r="I29" t="n">
-        <v>168.95</v>
+        <v>170.8</v>
       </c>
       <c r="J29" t="n">
         <v>176.96</v>
       </c>
       <c r="K29" t="n">
-        <v>6.66</v>
+        <v>5.43</v>
       </c>
       <c r="L29" t="n">
-        <v>166.12</v>
+        <v>168.31</v>
       </c>
       <c r="M29" t="n">
         <v>177.95</v>
@@ -1720,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.07</v>
       </c>
       <c r="F30" t="n">
-        <v>134.13</v>
+        <v>132.6</v>
       </c>
       <c r="G30" t="n">
         <v>135.41</v>
       </c>
       <c r="H30" t="n">
-        <v>5.78</v>
+        <v>7.85</v>
       </c>
       <c r="I30" t="n">
-        <v>135.08</v>
+        <v>132.12</v>
       </c>
       <c r="J30" t="n">
         <v>143.36</v>
       </c>
       <c r="K30" t="n">
-        <v>7.73</v>
+        <v>6.91</v>
       </c>
       <c r="L30" t="n">
-        <v>131.96</v>
+        <v>133.14</v>
       </c>
       <c r="M30" t="n">
         <v>143.01</v>
@@ -1763,28 +1763,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3.02</v>
+        <v>0.08</v>
       </c>
       <c r="F31" t="n">
-        <v>132.91</v>
+        <v>136.94</v>
       </c>
       <c r="G31" t="n">
         <v>137.05</v>
       </c>
       <c r="H31" t="n">
-        <v>7.99</v>
+        <v>7.81</v>
       </c>
       <c r="I31" t="n">
-        <v>133.71</v>
+        <v>133.98</v>
       </c>
       <c r="J31" t="n">
         <v>145.33</v>
       </c>
       <c r="K31" t="n">
-        <v>8.57</v>
+        <v>8.51</v>
       </c>
       <c r="L31" t="n">
-        <v>132.82</v>
+        <v>132.91</v>
       </c>
       <c r="M31" t="n">
         <v>145.27</v>

--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 1.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Improvement (%)</t>
+          <t>ARAP_NoGlobal-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-85.5</v>
+        <v>-8.82</v>
       </c>
       <c r="F2" t="n">
-        <v>144.64</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="G2" t="n">
         <v>77.97</v>
       </c>
       <c r="H2" t="n">
-        <v>-108.5</v>
+        <v>1.28</v>
       </c>
       <c r="I2" t="n">
-        <v>178.1</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>85.31999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>-39.09</v>
+        <v>-3.14</v>
       </c>
       <c r="L2" t="n">
-        <v>120.08</v>
+        <v>89.05</v>
       </c>
       <c r="M2" t="n">
         <v>86.33</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.78</v>
+        <v>3.54</v>
       </c>
       <c r="F3" t="n">
-        <v>58.89</v>
+        <v>58.43</v>
       </c>
       <c r="G3" t="n">
         <v>60.4</v>
       </c>
       <c r="H3" t="n">
-        <v>10.58</v>
+        <v>10.68</v>
       </c>
       <c r="I3" t="n">
-        <v>58.76</v>
+        <v>58.69</v>
       </c>
       <c r="J3" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>16.32</v>
+        <v>10.32</v>
       </c>
       <c r="L3" t="n">
-        <v>59.15</v>
+        <v>63.39</v>
       </c>
       <c r="M3" t="n">
         <v>70.8</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-93.17</v>
+        <v>-4.75</v>
       </c>
       <c r="F4" t="n">
-        <v>129.54</v>
+        <v>70.25</v>
       </c>
       <c r="G4" t="n">
         <v>67.02</v>
       </c>
       <c r="H4" t="n">
-        <v>-95</v>
+        <v>5.17</v>
       </c>
       <c r="I4" t="n">
-        <v>144.01</v>
+        <v>70.03</v>
       </c>
       <c r="J4" t="n">
         <v>73.78</v>
       </c>
       <c r="K4" t="n">
-        <v>-48.02</v>
+        <v>-16.01</v>
       </c>
       <c r="L4" t="n">
-        <v>111.84</v>
+        <v>87.66</v>
       </c>
       <c r="M4" t="n">
         <v>75.48</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-205.27</v>
+        <v>-21.65</v>
       </c>
       <c r="F5" t="n">
-        <v>232.65</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>76.26000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-189.61</v>
+        <v>-8.16</v>
       </c>
       <c r="I5" t="n">
-        <v>248.46</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>85.79000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>-206.66</v>
+        <v>-19.46</v>
       </c>
       <c r="L5" t="n">
-        <v>264</v>
+        <v>102.84</v>
       </c>
       <c r="M5" t="n">
         <v>86.11</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06</v>
+        <v>3.38</v>
       </c>
       <c r="F6" t="n">
-        <v>46.02</v>
+        <v>44.94</v>
       </c>
       <c r="G6" t="n">
         <v>46.5</v>
       </c>
       <c r="H6" t="n">
-        <v>19.48</v>
+        <v>26.92</v>
       </c>
       <c r="I6" t="n">
-        <v>44.85</v>
+        <v>40.7</v>
       </c>
       <c r="J6" t="n">
         <v>55.7</v>
       </c>
       <c r="K6" t="n">
-        <v>20.26</v>
+        <v>20.85</v>
       </c>
       <c r="L6" t="n">
-        <v>44.81</v>
+        <v>44.48</v>
       </c>
       <c r="M6" t="n">
         <v>56.2</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-182.33</v>
+        <v>-20.66</v>
       </c>
       <c r="F7" t="n">
-        <v>190.28</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>67.40000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>-208.59</v>
+        <v>-12.96</v>
       </c>
       <c r="I7" t="n">
-        <v>235.14</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>76.23</v>
       </c>
       <c r="K7" t="n">
-        <v>-122.73</v>
+        <v>-25.44</v>
       </c>
       <c r="L7" t="n">
-        <v>169.92</v>
+        <v>95.7</v>
       </c>
       <c r="M7" t="n">
         <v>76.28</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.15</v>
+        <v>10.51</v>
       </c>
       <c r="F8" t="n">
-        <v>52.9</v>
+        <v>47.89</v>
       </c>
       <c r="G8" t="n">
         <v>53.4</v>
       </c>
       <c r="H8" t="n">
-        <v>16.73</v>
+        <v>20.88</v>
       </c>
       <c r="I8" t="n">
-        <v>52.19</v>
+        <v>49.59</v>
       </c>
       <c r="J8" t="n">
         <v>62.65</v>
       </c>
       <c r="K8" t="n">
-        <v>26.12</v>
+        <v>23.99</v>
       </c>
       <c r="L8" t="n">
-        <v>49.29</v>
+        <v>50.71</v>
       </c>
       <c r="M8" t="n">
         <v>66.67</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.23</v>
+        <v>-3.44</v>
       </c>
       <c r="F9" t="n">
-        <v>98.8</v>
+        <v>69.42</v>
       </c>
       <c r="G9" t="n">
         <v>66.98</v>
       </c>
       <c r="H9" t="n">
-        <v>-22.42</v>
+        <v>6.95</v>
       </c>
       <c r="I9" t="n">
-        <v>92.17</v>
+        <v>70.06</v>
       </c>
       <c r="J9" t="n">
         <v>75.19</v>
       </c>
       <c r="K9" t="n">
-        <v>-19.73</v>
+        <v>11.22</v>
       </c>
       <c r="L9" t="n">
-        <v>91.16</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="M9" t="n">
         <v>76.12</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>9.66</v>
+        <v>5.66</v>
       </c>
       <c r="F10" t="n">
-        <v>39.66</v>
+        <v>41.41</v>
       </c>
       <c r="G10" t="n">
         <v>43.87</v>
       </c>
       <c r="H10" t="n">
-        <v>25.78</v>
+        <v>25.52</v>
       </c>
       <c r="I10" t="n">
-        <v>40.99</v>
+        <v>41.13</v>
       </c>
       <c r="J10" t="n">
         <v>55.27</v>
       </c>
       <c r="K10" t="n">
-        <v>30.75</v>
+        <v>22.09</v>
       </c>
       <c r="L10" t="n">
-        <v>38.53</v>
+        <v>43.35</v>
       </c>
       <c r="M10" t="n">
         <v>55.65</v>
@@ -903,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-289.32</v>
+        <v>-23.05</v>
       </c>
       <c r="F11" t="n">
-        <v>251.16</v>
+        <v>79.38</v>
       </c>
       <c r="G11" t="n">
         <v>64.52</v>
       </c>
       <c r="H11" t="n">
-        <v>-220.74</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>242.18</v>
+        <v>69.31</v>
       </c>
       <c r="J11" t="n">
         <v>75.48</v>
       </c>
       <c r="K11" t="n">
-        <v>-223.79</v>
+        <v>-26.07</v>
       </c>
       <c r="L11" t="n">
-        <v>243.76</v>
+        <v>94.91</v>
       </c>
       <c r="M11" t="n">
         <v>75.27</v>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="F12" t="n">
-        <v>286.68</v>
+        <v>285.98</v>
       </c>
       <c r="G12" t="n">
         <v>287.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>286.1</v>
+        <v>286.25</v>
       </c>
       <c r="J12" t="n">
         <v>286.51</v>
       </c>
       <c r="K12" t="n">
-        <v>3.43</v>
+        <v>-9.51</v>
       </c>
       <c r="L12" t="n">
-        <v>287.98</v>
+        <v>326.57</v>
       </c>
       <c r="M12" t="n">
         <v>298.41</v>
@@ -989,28 +989,28 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="F13" t="n">
-        <v>302.81</v>
+        <v>303.84</v>
       </c>
       <c r="G13" t="n">
         <v>308.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="I13" t="n">
-        <v>303.27</v>
+        <v>302.97</v>
       </c>
       <c r="J13" t="n">
         <v>304.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.25</v>
+        <v>-5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>304.6</v>
+        <v>342.13</v>
       </c>
       <c r="M13" t="n">
         <v>324.8</v>
@@ -1032,28 +1032,28 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="F14" t="n">
-        <v>230.25</v>
+        <v>230.91</v>
       </c>
       <c r="G14" t="n">
         <v>231.49</v>
       </c>
       <c r="H14" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>230.63</v>
+        <v>230.46</v>
       </c>
       <c r="J14" t="n">
         <v>231.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>1.8</v>
       </c>
       <c r="L14" t="n">
-        <v>230.71</v>
+        <v>235.13</v>
       </c>
       <c r="M14" t="n">
         <v>239.57</v>
@@ -1075,28 +1075,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-57.77</v>
+        <v>-11.27</v>
       </c>
       <c r="F15" t="n">
-        <v>250.63</v>
+        <v>176.76</v>
       </c>
       <c r="G15" t="n">
         <v>158.89</v>
       </c>
       <c r="H15" t="n">
-        <v>-44.34</v>
+        <v>-2.15</v>
       </c>
       <c r="I15" t="n">
-        <v>237.05</v>
+        <v>167.77</v>
       </c>
       <c r="J15" t="n">
         <v>164.26</v>
       </c>
       <c r="K15" t="n">
-        <v>-62.72</v>
+        <v>-1.77</v>
       </c>
       <c r="L15" t="n">
-        <v>267.94</v>
+        <v>167.58</v>
       </c>
       <c r="M15" t="n">
         <v>164.69</v>
@@ -1118,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="F16" t="n">
-        <v>141.12</v>
+        <v>140.88</v>
       </c>
       <c r="G16" t="n">
         <v>142.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="I16" t="n">
-        <v>141.01</v>
+        <v>141.15</v>
       </c>
       <c r="J16" t="n">
         <v>145.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.69</v>
+        <v>4.29</v>
       </c>
       <c r="L16" t="n">
-        <v>141.09</v>
+        <v>141.68</v>
       </c>
       <c r="M16" t="n">
         <v>148</v>
@@ -1161,28 +1161,28 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>-12.44</v>
+        <v>-0.84</v>
       </c>
       <c r="F17" t="n">
-        <v>210.89</v>
+        <v>189.14</v>
       </c>
       <c r="G17" t="n">
         <v>187.54</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>205.87</v>
+        <v>190.98</v>
       </c>
       <c r="J17" t="n">
         <v>192.02</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.92</v>
+        <v>4.04</v>
       </c>
       <c r="L17" t="n">
-        <v>209.86</v>
+        <v>184.89</v>
       </c>
       <c r="M17" t="n">
         <v>192.67</v>
@@ -1204,28 +1204,28 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.63</v>
+        <v>1.36</v>
       </c>
       <c r="F18" t="n">
-        <v>125.9</v>
+        <v>124.98</v>
       </c>
       <c r="G18" t="n">
         <v>126.71</v>
       </c>
       <c r="H18" t="n">
-        <v>4.38</v>
+        <v>4.67</v>
       </c>
       <c r="I18" t="n">
-        <v>126.45</v>
+        <v>126.07</v>
       </c>
       <c r="J18" t="n">
         <v>132.21</v>
       </c>
       <c r="K18" t="n">
-        <v>8.289999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="L18" t="n">
-        <v>121.87</v>
+        <v>123.36</v>
       </c>
       <c r="M18" t="n">
         <v>132.89</v>
@@ -1247,28 +1247,28 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.42</v>
+        <v>2.1</v>
       </c>
       <c r="F19" t="n">
-        <v>131.69</v>
+        <v>129.46</v>
       </c>
       <c r="G19" t="n">
         <v>132.26</v>
       </c>
       <c r="H19" t="n">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="I19" t="n">
-        <v>132.08</v>
+        <v>132</v>
       </c>
       <c r="J19" t="n">
         <v>137.72</v>
       </c>
       <c r="K19" t="n">
-        <v>5.52</v>
+        <v>8.23</v>
       </c>
       <c r="L19" t="n">
-        <v>130.8</v>
+        <v>127.05</v>
       </c>
       <c r="M19" t="n">
         <v>138.48</v>
@@ -1290,28 +1290,28 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.31</v>
+        <v>2.14</v>
       </c>
       <c r="F20" t="n">
-        <v>114.1</v>
+        <v>110.23</v>
       </c>
       <c r="G20" t="n">
         <v>112.63</v>
       </c>
       <c r="H20" t="n">
-        <v>8.49</v>
+        <v>6.67</v>
       </c>
       <c r="I20" t="n">
-        <v>110.73</v>
+        <v>112.93</v>
       </c>
       <c r="J20" t="n">
         <v>120.99</v>
       </c>
       <c r="K20" t="n">
-        <v>9.02</v>
+        <v>7.14</v>
       </c>
       <c r="L20" t="n">
-        <v>109.45</v>
+        <v>111.72</v>
       </c>
       <c r="M20" t="n">
         <v>120.29</v>
@@ -1333,28 +1333,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="F21" t="n">
-        <v>123.82</v>
+        <v>123.98</v>
       </c>
       <c r="G21" t="n">
         <v>124.95</v>
       </c>
       <c r="H21" t="n">
-        <v>-28.59</v>
+        <v>5.48</v>
       </c>
       <c r="I21" t="n">
-        <v>169.62</v>
+        <v>124.67</v>
       </c>
       <c r="J21" t="n">
         <v>131.91</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>12.52</v>
       </c>
       <c r="L21" t="n">
-        <v>125.72</v>
+        <v>115.17</v>
       </c>
       <c r="M21" t="n">
         <v>131.66</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="F22" t="n">
-        <v>448.06</v>
+        <v>452.54</v>
       </c>
       <c r="G22" t="n">
         <v>451.97</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>447.47</v>
+        <v>447.39</v>
       </c>
       <c r="J22" t="n">
         <v>447.29</v>
       </c>
       <c r="K22" t="n">
-        <v>5.23</v>
+        <v>4.9</v>
       </c>
       <c r="L22" t="n">
-        <v>445.55</v>
+        <v>447.13</v>
       </c>
       <c r="M22" t="n">
         <v>469.95</v>
@@ -1419,28 +1419,28 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="F23" t="n">
-        <v>719.89</v>
+        <v>717.11</v>
       </c>
       <c r="G23" t="n">
         <v>730.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>720.99</v>
+        <v>720.1799999999999</v>
       </c>
       <c r="J23" t="n">
         <v>721.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>6.31</v>
       </c>
       <c r="L23" t="n">
-        <v>719.66</v>
+        <v>710.47</v>
       </c>
       <c r="M23" t="n">
         <v>758.4</v>
@@ -1462,28 +1462,28 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="F24" t="n">
-        <v>444.22</v>
+        <v>442.96</v>
       </c>
       <c r="G24" t="n">
         <v>448.57</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>444.84</v>
+        <v>444.42</v>
       </c>
       <c r="J24" t="n">
         <v>444.62</v>
       </c>
       <c r="K24" t="n">
-        <v>4.54</v>
+        <v>4.95</v>
       </c>
       <c r="L24" t="n">
-        <v>444.84</v>
+        <v>442.93</v>
       </c>
       <c r="M24" t="n">
         <v>465.49</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.76</v>
+        <v>0.14</v>
       </c>
       <c r="F25" t="n">
-        <v>275.6</v>
+        <v>273.14</v>
       </c>
       <c r="G25" t="n">
         <v>273.58</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>275.31</v>
+        <v>275.15</v>
       </c>
       <c r="J25" t="n">
         <v>275.41</v>
       </c>
       <c r="K25" t="n">
-        <v>0.84</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>276.85</v>
+        <v>253.05</v>
       </c>
       <c r="M25" t="n">
         <v>279.25</v>
@@ -1548,28 +1548,28 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="F26" t="n">
-        <v>205.97</v>
+        <v>204.2</v>
       </c>
       <c r="G26" t="n">
         <v>208</v>
       </c>
       <c r="H26" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I26" t="n">
-        <v>205.88</v>
+        <v>205.94</v>
       </c>
       <c r="J26" t="n">
         <v>209.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5.42</v>
+        <v>5.64</v>
       </c>
       <c r="L26" t="n">
-        <v>205.67</v>
+        <v>205.18</v>
       </c>
       <c r="M26" t="n">
         <v>217.5</v>
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.76</v>
+        <v>0.22</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7</v>
+        <v>236.39</v>
       </c>
       <c r="G27" t="n">
         <v>236.86</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I27" t="n">
-        <v>238.85</v>
+        <v>238.78</v>
       </c>
       <c r="J27" t="n">
         <v>239.72</v>
       </c>
       <c r="K27" t="n">
-        <v>0.95</v>
+        <v>4.58</v>
       </c>
       <c r="L27" t="n">
-        <v>239.49</v>
+        <v>230.71</v>
       </c>
       <c r="M27" t="n">
         <v>241.74</v>
@@ -1634,28 +1634,28 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="F28" t="n">
-        <v>153.72</v>
+        <v>153.1</v>
       </c>
       <c r="G28" t="n">
         <v>154.09</v>
       </c>
       <c r="H28" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>154.25</v>
+        <v>153.94</v>
       </c>
       <c r="J28" t="n">
         <v>161.36</v>
       </c>
       <c r="K28" t="n">
-        <v>4.83</v>
+        <v>6.09</v>
       </c>
       <c r="L28" t="n">
-        <v>153.51</v>
+        <v>151.47</v>
       </c>
       <c r="M28" t="n">
         <v>161.3</v>
@@ -1677,28 +1677,28 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>169.07</v>
+        <v>170.47</v>
       </c>
       <c r="G29" t="n">
         <v>171.84</v>
       </c>
       <c r="H29" t="n">
-        <v>3.48</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>170.8</v>
+        <v>171.56</v>
       </c>
       <c r="J29" t="n">
         <v>176.96</v>
       </c>
       <c r="K29" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="L29" t="n">
-        <v>168.31</v>
+        <v>168.45</v>
       </c>
       <c r="M29" t="n">
         <v>177.95</v>
@@ -1720,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2.07</v>
+        <v>1.7</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6</v>
+        <v>133.11</v>
       </c>
       <c r="G30" t="n">
         <v>135.41</v>
       </c>
       <c r="H30" t="n">
-        <v>7.85</v>
+        <v>6.54</v>
       </c>
       <c r="I30" t="n">
-        <v>132.12</v>
+        <v>133.99</v>
       </c>
       <c r="J30" t="n">
         <v>143.36</v>
       </c>
       <c r="K30" t="n">
-        <v>6.91</v>
+        <v>7.23</v>
       </c>
       <c r="L30" t="n">
-        <v>133.14</v>
+        <v>132.67</v>
       </c>
       <c r="M30" t="n">
         <v>143.01</v>
@@ -1763,28 +1763,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
+        <v>0.63</v>
       </c>
       <c r="F31" t="n">
-        <v>136.94</v>
+        <v>136.19</v>
       </c>
       <c r="G31" t="n">
         <v>137.05</v>
       </c>
       <c r="H31" t="n">
-        <v>7.81</v>
+        <v>5.65</v>
       </c>
       <c r="I31" t="n">
-        <v>133.98</v>
+        <v>137.12</v>
       </c>
       <c r="J31" t="n">
         <v>145.33</v>
       </c>
       <c r="K31" t="n">
-        <v>8.51</v>
+        <v>6.08</v>
       </c>
       <c r="L31" t="n">
-        <v>132.91</v>
+        <v>136.44</v>
       </c>
       <c r="M31" t="n">
         <v>145.27</v>
